--- a/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
+++ b/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +60,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,20 +144,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,24 +189,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +605,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1628775</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -606,8 +616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="285750"/>
-          <a:ext cx="466725" cy="514350"/>
+          <a:off x="5086350" y="295275"/>
+          <a:ext cx="1485900" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,14 +644,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100"/>
           </a:br>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Igor</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -651,7 +661,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>1847850</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -668,8 +678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="285750"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6791325" y="295275"/>
+          <a:ext cx="1495425" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -719,7 +729,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -751,7 +761,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:colOff>1876425</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -768,8 +778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1000125"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6819900" y="1009650"/>
+          <a:ext cx="1457325" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,7 +829,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 4</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -840,7 +850,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Rodrigo</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -851,7 +861,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:colOff>1885950</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
@@ -868,8 +878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="1695450"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6829425" y="1704975"/>
+          <a:ext cx="1438275" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -919,7 +929,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 6</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -941,6 +951,17 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Responsável:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Rodrigo</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -957,7 +978,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:colOff>1600200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -968,8 +989,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="1695450"/>
-          <a:ext cx="485775" cy="514350"/>
+          <a:off x="5067300" y="1704975"/>
+          <a:ext cx="1476375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,7 +1040,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 5</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -1040,7 +1061,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Rodrigo</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -1057,7 +1078,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1619250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1068,8 +1089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="1000125"/>
-          <a:ext cx="476250" cy="514350"/>
+          <a:off x="5076825" y="1009650"/>
+          <a:ext cx="1485900" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,7 +1140,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 3</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -1140,335 +1161,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Rodrigo</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Retângulo 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="285750"/>
-          <a:ext cx="466725" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Retângulo 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="295275"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Retângulo 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="1009650"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Retângulo 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="1704975"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Retângulo 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="1695450"/>
-          <a:ext cx="485775" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Retângulo 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1962150" y="1000125"/>
-          <a:ext cx="476250" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1478,13 +1173,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1540,13 +1235,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1640,13 +1335,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1740,13 +1435,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1840,13 +1535,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1940,13 +1635,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2040,13 +1735,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2058,58 +1753,6 @@
         <a:xfrm>
           <a:off x="1971675" y="2381250"/>
           <a:ext cx="466725" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Retângulo 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="2390775"/>
-          <a:ext cx="0" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2145,12 +1788,64 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
       <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Retângulo 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="2390775"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2203,13 +1898,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2255,13 +1950,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2314,13 +2009,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2366,13 +2061,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2421,13 +2116,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3314701</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2476,13 +2171,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3362326</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2557,13 +2252,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1628774</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2612,13 +2307,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2693,13 +2388,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1609725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2753,13 +2448,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2815,13 +2510,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2915,13 +2610,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3333750</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3015,13 +2710,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324225</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3115,13 +2810,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3215,13 +2910,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3315,13 +3010,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3333,58 +3028,6 @@
         <a:xfrm>
           <a:off x="1943100" y="7343775"/>
           <a:ext cx="495300" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Retângulo 44"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="5248275"/>
-          <a:ext cx="0" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,12 +3063,64 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1343025</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305050</xdr:colOff>
       <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Retângulo 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="5248275"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3478,13 +3173,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3530,13 +3225,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3589,13 +3284,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3641,13 +3336,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3696,13 +3391,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1962150</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3751,13 +3446,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1943100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3343275</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3832,13 +3527,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1590674</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3887,13 +3582,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3968,13 +3663,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4028,13 +3723,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1876425</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3381375</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4109,13 +3804,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1590675</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4190,13 +3885,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1895475</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3400425</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4271,13 +3966,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4371,13 +4066,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4471,13 +4166,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4571,13 +4266,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1123950</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4623,13 +4318,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4675,13 +4370,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4727,13 +4422,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3409950</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4808,13 +4503,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1428750</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4908,13 +4603,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4958,6 +4653,760 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1685925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Retângulo 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="314325"/>
+          <a:ext cx="1485900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa: 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Igor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Retângulo 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315575" y="1028700"/>
+          <a:ext cx="1466850" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 4</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Retângulo 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10325100" y="1724025"/>
+          <a:ext cx="1457325" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 6</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Rodrigo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Retângulo 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="1724025"/>
+          <a:ext cx="1476375" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 5</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Retângulo 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="1028700"/>
+          <a:ext cx="1485900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 3</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Retângulo 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="2400300"/>
+          <a:ext cx="1457325" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Excluir cliente)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1628775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Retângulo 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="2419350"/>
+          <a:ext cx="1476375" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Retângulo 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="2447925"/>
+          <a:ext cx="1476375" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Rodrigo</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5252,10 +5701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Plan3"/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E46"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5263,7 +5712,7 @@
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="51.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
@@ -5293,13 +5742,13 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
@@ -5308,11 +5757,11 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
@@ -5321,11 +5770,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="11"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -5334,11 +5783,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="11"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -5347,11 +5796,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -5360,11 +5809,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -5373,11 +5822,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5386,11 +5835,11 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5399,11 +5848,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5412,11 +5861,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="11"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5425,11 +5874,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5438,13 +5887,13 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="19">
-        <v>4</v>
+      <c r="A13" s="14">
+        <v>3</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5453,11 +5902,11 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="20"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="23"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5466,11 +5915,11 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="20"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5478,12 +5927,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="20"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="23"/>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5492,11 +5941,13 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="20"/>
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="23"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5505,204 +5956,228 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="20"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="23"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="20"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="23"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="20"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="20"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="23"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="20"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="20"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="23"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="20"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="20"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="20"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="13">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="14">
         <v>5</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="14"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="14"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="14"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="14"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="14"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="17"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="14"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1">
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -5710,31 +6185,60 @@
       <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="B47" s="1"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="B48" s="1"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:5">
+      <c r="A49" s="15"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A13:A27"/>
-    <mergeCell ref="B13:B27"/>
-    <mergeCell ref="C13:C27"/>
-    <mergeCell ref="D13:D27"/>
-    <mergeCell ref="E13:E27"/>
-    <mergeCell ref="A28:A46"/>
-    <mergeCell ref="B28:B46"/>
-    <mergeCell ref="C28:C46"/>
-    <mergeCell ref="D28:D46"/>
-    <mergeCell ref="E28:E46"/>
+  <mergeCells count="16">
+    <mergeCell ref="A13:A16"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="B2:B12"/>
     <mergeCell ref="C2:C12"/>
     <mergeCell ref="D2:D12"/>
     <mergeCell ref="E2:E12"/>
+    <mergeCell ref="A32:A50"/>
+    <mergeCell ref="B32:B50"/>
+    <mergeCell ref="C32:C50"/>
+    <mergeCell ref="D32:D50"/>
+    <mergeCell ref="E32:E50"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B17:B31"/>
+    <mergeCell ref="C17:C31"/>
+    <mergeCell ref="D17:D31"/>
+    <mergeCell ref="E17:E31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
+++ b/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -144,13 +144,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +169,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -171,33 +196,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1234,13 +1234,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>1885949</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3343275</xdr:colOff>
+      <xdr:colOff>3343274</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1251,8 +1251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="2381250"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6829424" y="3171825"/>
+          <a:ext cx="1457325" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,7 +1334,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:colOff>1876425</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -1351,8 +1351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="3095625"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6819900" y="3886200"/>
+          <a:ext cx="1457325" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,7 +1402,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 4</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -1423,7 +1423,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Isabella</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -1434,13 +1434,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:colOff>1876426</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:colOff>3324226</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1451,8 +1451,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="3790950"/>
-          <a:ext cx="0" cy="590550"/>
+          <a:off x="6819901" y="4581525"/>
+          <a:ext cx="1447800" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1502,7 +1502,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 6</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -1523,7 +1523,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Isabella</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -1540,7 +1540,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:colOff>1552575</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1551,8 +1551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="3790950"/>
-          <a:ext cx="485775" cy="590550"/>
+          <a:off x="5067300" y="4581525"/>
+          <a:ext cx="1428750" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1602,7 +1602,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 5</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -1623,7 +1623,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Isabella</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -1640,7 +1640,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1543050</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -1651,8 +1651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="3095625"/>
-          <a:ext cx="476250" cy="514350"/>
+          <a:off x="5076825" y="3886200"/>
+          <a:ext cx="1409700" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1702,7 +1702,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 3</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -1723,7 +1723,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Isabella</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -3528,13 +3528,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1590674</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3543,8 +3543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723899" y="4533900"/>
-          <a:ext cx="495300" cy="600075"/>
+          <a:off x="1400174" y="5248275"/>
+          <a:ext cx="1476375" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5742,13 +5742,13 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="8">
+      <c r="A2" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
@@ -5757,11 +5757,11 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="20"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
@@ -5770,11 +5770,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="20"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
@@ -5783,11 +5783,11 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="20"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="23"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -5796,11 +5796,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -5809,11 +5809,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="20"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
@@ -5822,11 +5822,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5835,11 +5835,11 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -5848,11 +5848,11 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="20"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -5861,11 +5861,11 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="20"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -5874,11 +5874,11 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -5887,13 +5887,13 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="14">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -5902,11 +5902,11 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="15"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -5915,11 +5915,11 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="15"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -5928,11 +5928,11 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -5941,13 +5941,13 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="5">
+      <c r="A17" s="19">
         <v>4</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="22"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5956,11 +5956,11 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -5969,11 +5969,11 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -5982,11 +5982,11 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -5995,11 +5995,11 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -6008,209 +6008,209 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="13"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="14">
+      <c r="A32" s="10">
         <v>5</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="17"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="15"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="15"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="15"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="18"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="15"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="18"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="15"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="18"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="15"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="18"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="15"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="18"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="18"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="18"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="18"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="17"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="15"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="18"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="17"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="15"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="18"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="18"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="18"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="18"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="18"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="19"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" s="1"/>
@@ -6223,11 +6223,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:C12"/>
-    <mergeCell ref="D2:D12"/>
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="A32:A50"/>
     <mergeCell ref="B32:B50"/>
@@ -6239,6 +6234,11 @@
     <mergeCell ref="C17:C31"/>
     <mergeCell ref="D17:D31"/>
     <mergeCell ref="E17:E31"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C12"/>
+    <mergeCell ref="D2:D12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
+++ b/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
@@ -1217,14 +1217,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100"/>
           </a:br>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Igor</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1734,13 +1734,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:colOff>1666875</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -1751,8 +1751,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="2381250"/>
-          <a:ext cx="466725" cy="514350"/>
+          <a:off x="8572500" y="3171825"/>
+          <a:ext cx="1476375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1777,7 +1777,21 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> Igor</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1786,13 +1800,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:colOff>1971675</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:colOff>2933700</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1803,8 +1817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="2390775"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="10353675" y="3181350"/>
+          <a:ext cx="962025" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,13 +2461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1619249</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2464,8 +2478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1362075" y="5238750"/>
-          <a:ext cx="466725" cy="514350"/>
+          <a:off x="5086349" y="6038850"/>
+          <a:ext cx="1476375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2492,14 +2506,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="pt-BR" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Responsável:</a:t>
+            <a:t>Tarefa: 1 Responsável: Igor</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2509,7 +2516,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>1838325</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -2526,8 +2533,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="5238750"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6781800" y="6038850"/>
+          <a:ext cx="1504950" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2577,7 +2584,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 2</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -2598,7 +2605,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Flaviano</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -2609,7 +2616,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:colOff>1847850</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -2626,8 +2633,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="5953125"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6791325" y="6753225"/>
+          <a:ext cx="1485900" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2677,7 +2684,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 4</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -2698,7 +2705,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Emeson</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -2709,13 +2716,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:colOff>1857376</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3324225</xdr:colOff>
+      <xdr:colOff>3324226</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2726,8 +2733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="6648450"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6800851" y="7448550"/>
+          <a:ext cx="1466850" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2777,7 +2784,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 6</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -2798,7 +2805,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Emeson</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -2815,7 +2822,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2826,8 +2833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="6648450"/>
-          <a:ext cx="485775" cy="514350"/>
+          <a:off x="5067300" y="7448550"/>
+          <a:ext cx="1485900" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2879,6 +2886,28 @@
             </a:rPr>
             <a:t>Tarefa:</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
@@ -2898,7 +2927,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Emeson</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -2915,7 +2944,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2926,8 +2955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="5953125"/>
-          <a:ext cx="476250" cy="514350"/>
+          <a:off x="5076825" y="6753225"/>
+          <a:ext cx="1476375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2977,7 +3006,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 3</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -2998,7 +3027,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Emeson</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -3971,7 +4000,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -3982,8 +4011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="7343775"/>
-          <a:ext cx="495300" cy="514350"/>
+          <a:off x="5057775" y="8143875"/>
+          <a:ext cx="1495425" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4033,7 +4062,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -4065,13 +4094,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>1866901</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:colOff>3295651</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -4082,8 +4111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="7324725"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="6810376" y="8124825"/>
+          <a:ext cx="1428750" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4171,7 +4200,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:colOff>1609725</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -4182,8 +4211,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1304925" y="8029575"/>
-          <a:ext cx="523875" cy="514350"/>
+          <a:off x="5029200" y="8829675"/>
+          <a:ext cx="1524000" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5703,8 +5732,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
+++ b/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
@@ -1776,14 +1776,14 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>Tarefa: 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
             <a:t>Responsável:</a:t>
@@ -1800,15 +1800,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>1876425</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:colOff>3457575</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1817,8 +1817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="3181350"/>
-          <a:ext cx="962025" cy="514350"/>
+          <a:off x="10258425" y="3190875"/>
+          <a:ext cx="1581150" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1844,176 +1844,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Retângulo 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="3105150"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Retângulo 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="3800475"/>
-          <a:ext cx="0" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1085850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Retângulo 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1952625" y="3790950"/>
-          <a:ext cx="485775" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2028,7 +1858,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:colOff>1704975</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2039,8 +1869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1962150" y="3095625"/>
-          <a:ext cx="476250" cy="514350"/>
+          <a:off x="8515350" y="3886200"/>
+          <a:ext cx="1571625" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2064,7 +1894,22 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Responsável: Isabella</a:t>
+          </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3600,7 +3445,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>6 - Teste</a:t>
+            <a:t>7 - Teste</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4631,65 +4476,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Retângulo 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="4486275"/>
-          <a:ext cx="466725" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5436,6 +5222,274 @@
             <a:t>Responsável: Rodrigo</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Retângulo 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505825" y="4562475"/>
+          <a:ext cx="1571625" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> 5</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Responsável: Isabella</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1895475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Retângulo 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="3895725"/>
+          <a:ext cx="1571625" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> 4</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Responsável: Isabella</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3438525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Retângulo 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="4562475"/>
+          <a:ext cx="1571625" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> 6</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Responsável: Isabella</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Retângulo 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="5295900"/>
+          <a:ext cx="1571625" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>Responsável: </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5732,8 +5786,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
+++ b/trunk/Documentos/RequisitosAnaliseProjeto/Taskboard.xlsx
@@ -2351,7 +2351,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>Tarefa: 1 Responsável: Igor</a:t>
+            <a:t>Tarefa: 1 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Responsável: Igor</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2935,15 +2942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:colOff>1905001</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:colOff>3400425</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2952,8 +2959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="5248275"/>
-          <a:ext cx="0" cy="514350"/>
+          <a:off x="10287001" y="6086475"/>
+          <a:ext cx="1495424" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2977,8 +2984,32 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 2 </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Flaviano</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4145,7 +4176,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -4156,8 +4187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990725" y="5276850"/>
-          <a:ext cx="447675" cy="514350"/>
+          <a:off x="8543925" y="6076950"/>
+          <a:ext cx="1371600" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4181,184 +4212,30 @@
         <a:bodyPr rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2324100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Retângulo 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="7353300"/>
-          <a:ext cx="0" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Retângulo 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1933575" y="8039100"/>
-          <a:ext cx="504825" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="pt-BR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3409950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Retângulo 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="3800475"/>
-          <a:ext cx="0" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>6 - Programação</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> (Excluir quarto)</a:t>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 1 </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Igor</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
@@ -4375,6 +4252,191 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2324100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Retângulo 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="7353300"/>
+          <a:ext cx="0" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Retângulo 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="8039100"/>
+          <a:ext cx="504825" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3409950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Retângulo 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="3800475"/>
+          <a:ext cx="0" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6 - Programação</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> (Excluir quarto)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -4382,7 +4444,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:colOff>1562100</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -4393,8 +4455,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="4505325"/>
-          <a:ext cx="504825" cy="590550"/>
+          <a:off x="5048250" y="5295900"/>
+          <a:ext cx="1457325" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4444,7 +4506,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Tarefa:</a:t>
+            <a:t>Tarefa: 1</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100">
@@ -4465,7 +4527,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Responsável:</a:t>
+            <a:t>Responsável: Isabella</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -5480,16 +5542,438 @@
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
+            <a:t>  7</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
           </a:br>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t>Responsável: </a:t>
+            <a:t>Responsável:  Isabella</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Retângulo 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12125325" y="6143625"/>
+          <a:ext cx="1476375" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 3</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Emeson</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Retângulo 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12115800" y="6791325"/>
+          <a:ext cx="1485900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 4</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Emeson</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Retângulo 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12087225" y="7429500"/>
+          <a:ext cx="1485900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Emeson</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1666876</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Retângulo 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12134851" y="8124825"/>
+          <a:ext cx="1466850" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tarefa: 6</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Responsável: Emeson</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5786,8 +6270,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
